--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-X.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-X.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-X.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-X.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'X': 225.0 ton, 2.52 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'X': 150.0-300.0 ton, 4.90 COP, 5.60 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>109ceed9-dc6e-4551-bb45-bf3cc6ea5495</t>
+          <t>c8cec7c5-96a2-4677-b361-752ee196fda1</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>374807.6689907564</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81634.16848067977</v>
+        <v>42060.9251112999</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>198476.1651430743</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>280110.333623754</v>
+        <v>240537.0902543742</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4301437461164</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2296021590174</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117989.9074545145</v>
+        <v>60792.73855172627</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>396952.3302861485</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>514942.237740663</v>
+        <v>457745.0688378748</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8213986033438</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.3209931631169</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165589.769566654</v>
+        <v>85317.93765485346</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>595428.4954292228</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>761018.2649958768</v>
+        <v>680746.4330840763</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2126534605712</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.464641695376</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>224433.7548170982</v>
+        <v>115636.5224206814</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>793904.6605722971</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1018338.415389395</v>
+        <v>909541.1829929785</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6039083177986</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.6605477557945</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>95883.40877781603</v>
+        <v>49402.65762582425</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>190379.577749103</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>286262.986526919</v>
+        <v>239782.2353749272</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3733892409559</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3370308484518</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138585.0402922324</v>
+        <v>71404.1082277651</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>380759.155498206</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>519344.1957904384</v>
+        <v>452163.2637259711</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.707889593023</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4241610390728</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194493.4561138025</v>
+        <v>100210.1796893616</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>571138.733247309</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>765632.1893611115</v>
+        <v>671348.9129366706</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.04238994509</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5728899059093</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>263608.6562425261</v>
+        <v>135820.8720106138</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>761518.310996412</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1025126.967238938</v>
+        <v>897339.1830070257</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.376890297157</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.7832174489612</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111050.2675685212</v>
+        <v>57217.18092706285</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>177038.0893466956</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>288088.3569152168</v>
+        <v>234255.2702737584</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2798696461516</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4239503760476</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>160506.4525929471</v>
+        <v>82698.82584753854</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>354076.1786933912</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>514582.6312863383</v>
+        <v>436775.0045409297</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5208504034144</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.4837634935721</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>225258.4739849312</v>
+        <v>116061.4480590713</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>531114.2680400868</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>756372.7420250181</v>
+        <v>647175.7160991582</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7618311606771</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.6151489635142</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>305306.3317444733</v>
+        <v>157305.0475616609</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>708152.3573867824</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1013458.689131256</v>
+        <v>865457.4049484434</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.0028119179398</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.8181067858737</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123937.3638554262</v>
+        <v>63857.08676445625</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>158451.6999358519</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>282389.0637912782</v>
+        <v>222308.7867003082</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1495849617034</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.4756262839618</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>179132.81121886</v>
+        <v>92295.81066212822</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>316903.3998717039</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>496036.2110905639</v>
+        <v>409199.2105338321</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.260281034518</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.4785556118579</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>251399.1371930941</v>
+        <v>129530.0788790014</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>475355.0998075558</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>726754.2370006499</v>
+        <v>604885.1786865572</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.3709771073325</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.5616212066228</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>340736.3417781283</v>
+        <v>175559.8914150758</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>633806.7997434078</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>974543.141521536</v>
+        <v>809366.6911584835</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.481673180147</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.7248230682563</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85985.62843784968</v>
+        <v>44302.95727491115</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>220770.9027221484</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>306756.531159998</v>
+        <v>265073.8599970595</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.478688955275</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.3534414660905</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>124279.2880802266</v>
+        <v>64033.25869688024</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>441541.8054442967</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>565821.0935245233</v>
+        <v>505575.064141177</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.0296001327722</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.55745475342</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>174416.4320414095</v>
+        <v>89865.75869894579</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>662312.7081664451</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>836729.1402078547</v>
+        <v>752178.4668653909</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.5805113102694</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.8165111248285</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236397.0603213985</v>
+        <v>121800.4572811077</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>883083.6108885935</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1119480.671209992</v>
+        <v>1004884.068169701</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.1314224877666</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.1306105803159</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100640.1868772578</v>
+        <v>51853.52459899666</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>213498.0486720043</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>314138.235549262</v>
+        <v>265351.5732710009</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4275973009873</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.4670457255799</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>145460.2473064084</v>
+        <v>74946.46766781228</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>426996.0973440085</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>572456.3446504169</v>
+        <v>501942.5650118208</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9274168241967</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.671885086399</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>204142.2809138331</v>
+        <v>105181.6089925484</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>640494.1460160128</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>844636.4269298458</v>
+        <v>745675.7550085612</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4272363474062</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9413790351675</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>276686.2876995319</v>
+        <v>142558.9485732051</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>853992.194688017</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1130678.482387549</v>
+        <v>996551.1432612222</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9270558706156</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.2755275718855</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>117489.1482554013</v>
+        <v>60534.7290005213</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>200980.293613424</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>318469.4418688253</v>
+        <v>261515.0226139453</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3396603219826</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5661096975044</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>169812.885799717</v>
+        <v>87493.84241288649</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>401960.587226848</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>571773.473026565</v>
+        <v>489454.4296397345</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7515428661873</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7513711602421</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>238319.3379473049</v>
+        <v>122790.885391924</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>602940.8808402719</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>841260.2187875769</v>
+        <v>725731.766232196</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1634254103921</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>308.0123548603798</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>323008.5046981651</v>
+        <v>166425.8579376339</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>803921.174453696</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1126929.679151861</v>
+        <v>970347.03239133</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5753079545968</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3490607979177</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>133576.5698094371</v>
+        <v>68823.56008450974</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>183217.6375464075</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>316794.2073558446</v>
+        <v>252041.1976309172</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2148780182609</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.6371352390196</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>193064.8330623595</v>
+        <v>99474.10056590926</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>366435.275092815</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>559500.1081551745</v>
+        <v>465909.3756587243</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5019782587441</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7764758248505</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>270951.6594081998</v>
+        <v>139604.2572277553</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>549652.9126392226</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>820604.5720474224</v>
+        <v>689257.1698669778</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7890784992272</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>317.002185261145</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>367237.048846958</v>
+        <v>189214.0300700477</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>732870.5501856301</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1100107.599032588</v>
+        <v>922084.5802556778</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.0761787397103</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3142635479028</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>89358.18131410259</v>
+        <v>46040.62051815892</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>231391.763154926</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>320749.9444690286</v>
+        <v>277432.3836730849</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4452278739197</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4184764342289</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>129153.8058117168</v>
+        <v>66544.78945751315</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>462783.5263098519</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>591937.3321215687</v>
+        <v>529328.315767365</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0737890811728</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.6788310543657</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>181257.4431526116</v>
+        <v>93390.49915247218</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>694175.2894647778</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>875432.7326173894</v>
+        <v>787565.78861725</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.7023502884259</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.9963876741455</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>245669.093336787</v>
+        <v>126577.749603036</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>925567.0526197038</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1171236.145956491</v>
+        <v>1052144.80222274</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.3309114956789</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.3711462935685</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>102945.9365270844</v>
+        <v>53041.53159596529</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>224942.642448609</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>327888.5789756934</v>
+        <v>277984.1740445743</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.399838238351</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5311796534822</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>148792.8614906358</v>
+        <v>76663.55302847004</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>449885.284897218</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>598678.1463878538</v>
+        <v>526548.837925688</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9830098100354</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7941880056748</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>208819.3488658824</v>
+        <v>107591.4063670163</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>674827.927345827</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>883647.2762117094</v>
+        <v>782419.3337128432</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.5661813817198</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1233322357284</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>283025.3986528244</v>
+        <v>145825.091611604</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>899770.569794436</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1182795.96844726</v>
+        <v>1045595.66140604</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.1493529534042</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.518612343643</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>119508.1313049856</v>
+        <v>61574.98330126361</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>213248.6207338559</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>332756.7520388415</v>
+        <v>274823.6040351195</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3175344006441</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6329629492008</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>172731.0220116277</v>
+        <v>88997.37348275702</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>426497.2414677118</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>599228.2634793395</v>
+        <v>515494.6149504688</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8184021346216</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8798377501438</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>242414.7179108893</v>
+        <v>124900.975727338</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>639745.8622015677</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>882160.580112457</v>
+        <v>764646.8379289057</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.319269868599</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.2037360313341</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>328559.2190027705</v>
+        <v>169285.7900350066</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>852994.4829354236</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1181553.701938194</v>
+        <v>1022280.27297043</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8201376025765</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6046577927718</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>136330.2611194885</v>
+        <v>70242.36309466256</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>196309.6980106666</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>332639.9591301551</v>
+        <v>266552.0611053291</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.198316360799</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.7115203613014</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>197044.8795169046</v>
+        <v>101524.7668369051</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>392619.3960213332</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>589664.2755382378</v>
+        <v>494144.1628582382</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5799660549313</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.9180762557595</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>276537.3488073274</v>
+        <v>142482.2097797836</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>588929.0940319998</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>865466.4428393273</v>
+        <v>731411.3038117834</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9616157490636</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.2127815012083</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>374807.6689907564</v>
+        <v>193114.6919232981</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>785238.7920426663</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1160046.461033423</v>
+        <v>978353.4839659644</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3432654431959</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5956360976479</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>92457.67985269228</v>
+        <v>47637.59612703106</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>230338.7464414074</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>322796.4262940997</v>
+        <v>277976.3425684384</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3293911561493</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.4279875433022</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>133633.664583233</v>
+        <v>68852.97741121952</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>460677.4928828148</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>594311.1574660478</v>
+        <v>529530.4702940343</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.953226756743</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.6898635060081</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>187544.5807364129</v>
+        <v>96629.86359996196</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>691016.2393242222</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>878560.8200606351</v>
+        <v>787646.1029241842</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.5770623573367</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>290.0109255901431</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>254190.428312232</v>
+        <v>130968.2546932584</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>921354.9857656296</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1175545.414077862</v>
+        <v>1052323.240458888</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.2008979579305</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.3911737957072</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>103917.5892172551</v>
+        <v>53542.1627874882</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>224713.3590789176</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>328630.9482961727</v>
+        <v>278255.5218664058</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2897334589209</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5346421895804</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>150197.2392545657</v>
+        <v>77387.14008834938</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>449426.7181578352</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>599623.9574124009</v>
+        <v>526813.8582461845</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.8739113622863</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7985994282972</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>210790.2851546776</v>
+        <v>108606.9052100256</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>674140.0772367527</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>884930.3623914303</v>
+        <v>782746.9824467783</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.4580892656516</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1293167667317</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>285696.7269175908</v>
+        <v>147201.4581525167</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>898853.4363156704</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1184550.163233261</v>
+        <v>1046054.894468187</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.0422671690169</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.526794204884</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>118635.2269539386</v>
+        <v>61125.23088481797</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>213843.0707079916</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>332478.2976619303</v>
+        <v>274968.3015928096</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2131004064357</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6316600041171</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>171469.3701137333</v>
+        <v>88347.32403677747</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>427686.1414159832</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>599155.5115297165</v>
+        <v>516033.4654527607</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7206452573158</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.879497328865</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>240644.0864089857</v>
+        <v>123988.6812753047</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>641529.2121239748</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>882173.2985329605</v>
+        <v>765517.8933992796</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2281901081959</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.2037955434296</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>326159.3758396956</v>
+        <v>168049.3026003996</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>855372.2828319664</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1181531.658671662</v>
+        <v>1023421.585432366</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.7357349590759</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.6045546478111</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>134137.5267689507</v>
+        <v>69112.5857352132</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>197727.8813286295</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>331865.4080975802</v>
+        <v>266840.4670638427</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.0994919986936</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7078843663614</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>193875.6119429534</v>
+        <v>99891.8436557596</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>395455.762657259</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>589331.3746002123</v>
+        <v>495347.6063130185</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.4934284418316</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.9165135102782</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>272089.5252723528</v>
+        <v>140190.5275578091</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>593183.6439858885</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>865273.1692582413</v>
+        <v>733374.1715436976</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.8873648849695</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.2118742120391</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.05136944937274555</v>
+        <v>0.04430383771421253</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>368779.2667571487</v>
+        <v>190008.6374413617</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>790911.5253145179</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1159690.792071667</v>
+        <v>980920.1627558796</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.2813013281075</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5939664716441</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.04430383771421253</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.04430383771421253</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.04430383771421253</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.04430383771421253</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>